--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptn-Alk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptn-Alk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H2">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I2">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J2">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.060228</v>
       </c>
       <c r="O2">
-        <v>0.2773528341768247</v>
+        <v>0.9845198201879853</v>
       </c>
       <c r="P2">
-        <v>0.2773528341768246</v>
+        <v>0.9845198201879852</v>
       </c>
       <c r="Q2">
-        <v>0.012660554648</v>
+        <v>0.005145485492000001</v>
       </c>
       <c r="R2">
-        <v>0.113944991832</v>
+        <v>0.046309369428</v>
       </c>
       <c r="S2">
-        <v>0.01318121383482488</v>
+        <v>0.02940589942197512</v>
       </c>
       <c r="T2">
-        <v>0.01318121383482487</v>
+        <v>0.02940589942197511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H3">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I3">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J3">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,27 +626,27 @@
         <v>0.000947</v>
       </c>
       <c r="O3">
-        <v>0.004360980506831589</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="P3">
-        <v>0.004360980506831588</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="Q3">
-        <v>0.0001990692908888889</v>
+        <v>8.09054718888889E-05</v>
       </c>
       <c r="R3">
-        <v>0.001791623618</v>
+        <v>0.0007281492470000001</v>
       </c>
       <c r="S3">
-        <v>0.0002072559192000259</v>
+        <v>0.0004623661212826333</v>
       </c>
       <c r="T3">
-        <v>0.0002072559192000258</v>
+        <v>0.0004623661212826332</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6306313333333333</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H4">
-        <v>1.891894</v>
+        <v>19.486935</v>
       </c>
       <c r="I4">
-        <v>0.04752507351852504</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J4">
-        <v>0.04752507351852504</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05199266666666667</v>
+        <v>0.020076</v>
       </c>
       <c r="N4">
-        <v>0.155978</v>
+        <v>0.060228</v>
       </c>
       <c r="O4">
-        <v>0.7182861853163438</v>
+        <v>0.9845198201879853</v>
       </c>
       <c r="P4">
-        <v>0.7182861853163438</v>
+        <v>0.9845198201879852</v>
       </c>
       <c r="Q4">
-        <v>0.03278820470355556</v>
+        <v>0.13040656902</v>
       </c>
       <c r="R4">
-        <v>0.295093842332</v>
+        <v>1.17365912118</v>
       </c>
       <c r="S4">
-        <v>0.03413660376450015</v>
+        <v>0.745259598638273</v>
       </c>
       <c r="T4">
-        <v>0.03413660376450015</v>
+        <v>0.7452595986382727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H5">
         <v>19.486935</v>
       </c>
       <c r="I5">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J5">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.020076</v>
+        <v>0.0003156666666666667</v>
       </c>
       <c r="N5">
-        <v>0.060228</v>
+        <v>0.000947</v>
       </c>
       <c r="O5">
-        <v>0.2773528341768247</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="P5">
-        <v>0.2773528341768246</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="Q5">
-        <v>0.13040656902</v>
+        <v>0.002050458605</v>
       </c>
       <c r="R5">
-        <v>1.17365912118</v>
+        <v>0.018454127445</v>
       </c>
       <c r="S5">
-        <v>0.1357694761019027</v>
+        <v>0.0117181516887568</v>
       </c>
       <c r="T5">
-        <v>0.1357694761019027</v>
+        <v>0.0117181516887568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.495645</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H6">
-        <v>19.486935</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I6">
-        <v>0.4895189786138752</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J6">
-        <v>0.4895189786138752</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,33 +806,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.0003156666666666667</v>
+        <v>0.020076</v>
       </c>
       <c r="N6">
-        <v>0.000947</v>
+        <v>0.060228</v>
       </c>
       <c r="O6">
-        <v>0.004360980506831589</v>
+        <v>0.9845198201879853</v>
       </c>
       <c r="P6">
-        <v>0.004360980506831588</v>
+        <v>0.9845198201879852</v>
       </c>
       <c r="Q6">
-        <v>0.002050458605</v>
+        <v>0.036224585656</v>
       </c>
       <c r="R6">
-        <v>0.018454127445</v>
+        <v>0.326021270904</v>
       </c>
       <c r="S6">
-        <v>0.00213478272345922</v>
+        <v>0.2070196338244886</v>
       </c>
       <c r="T6">
-        <v>0.002134782723459219</v>
+        <v>0.2070196338244886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.495645</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H7">
-        <v>19.486935</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I7">
-        <v>0.4895189786138752</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J7">
-        <v>0.4895189786138752</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05199266666666667</v>
+        <v>0.0003156666666666667</v>
       </c>
       <c r="N7">
-        <v>0.155978</v>
+        <v>0.000947</v>
       </c>
       <c r="O7">
-        <v>0.7182861853163438</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="P7">
-        <v>0.7182861853163438</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="Q7">
-        <v>0.33772590527</v>
+        <v>0.0005695803051111112</v>
       </c>
       <c r="R7">
-        <v>3.03953314743</v>
+        <v>0.005126222746000001</v>
       </c>
       <c r="S7">
-        <v>0.3516147197885133</v>
+        <v>0.003255090543132608</v>
       </c>
       <c r="T7">
-        <v>0.3516147197885133</v>
+        <v>0.003255090543132607</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -906,22 +906,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>6.118461333333333</v>
+        <v>0.024707</v>
       </c>
       <c r="H8">
-        <v>18.355384</v>
+        <v>0.07412100000000001</v>
       </c>
       <c r="I8">
-        <v>0.4610940010702282</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J8">
-        <v>0.4610940010702282</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,27 +936,27 @@
         <v>0.060228</v>
       </c>
       <c r="O8">
-        <v>0.2773528341768247</v>
+        <v>0.9845198201879853</v>
       </c>
       <c r="P8">
-        <v>0.2773528341768246</v>
+        <v>0.9845198201879852</v>
       </c>
       <c r="Q8">
-        <v>0.122834229728</v>
+        <v>0.0004960177320000001</v>
       </c>
       <c r="R8">
-        <v>1.105508067552</v>
+        <v>0.004464159588</v>
       </c>
       <c r="S8">
-        <v>0.1278857280187596</v>
+        <v>0.002834688303248686</v>
       </c>
       <c r="T8">
-        <v>0.1278857280187596</v>
+        <v>0.002834688303248685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -968,22 +968,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>6.118461333333333</v>
+        <v>0.024707</v>
       </c>
       <c r="H9">
-        <v>18.355384</v>
+        <v>0.07412100000000001</v>
       </c>
       <c r="I9">
-        <v>0.4610940010702282</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J9">
-        <v>0.4610940010702282</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,270 +998,22 @@
         <v>0.000947</v>
       </c>
       <c r="O9">
-        <v>0.004360980506831589</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="P9">
-        <v>0.004360980506831588</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="Q9">
-        <v>0.001931394294222222</v>
+        <v>7.799176333333334E-06</v>
       </c>
       <c r="R9">
-        <v>0.017382548648</v>
+        <v>7.019258700000001E-05</v>
       </c>
       <c r="S9">
-        <v>0.002010821950484249</v>
+        <v>4.457145884267293E-05</v>
       </c>
       <c r="T9">
-        <v>0.002010821950484249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>6.118461333333333</v>
-      </c>
-      <c r="H10">
-        <v>18.355384</v>
-      </c>
-      <c r="I10">
-        <v>0.4610940010702282</v>
-      </c>
-      <c r="J10">
-        <v>0.4610940010702282</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.05199266666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.155978</v>
-      </c>
-      <c r="O10">
-        <v>0.7182861853163438</v>
-      </c>
-      <c r="P10">
-        <v>0.7182861853163438</v>
-      </c>
-      <c r="Q10">
-        <v>0.3181151206168889</v>
-      </c>
-      <c r="R10">
-        <v>2.863036085552</v>
-      </c>
-      <c r="S10">
-        <v>0.3311974511009844</v>
-      </c>
-      <c r="T10">
-        <v>0.3311974511009844</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.024707</v>
-      </c>
-      <c r="H11">
-        <v>0.07412100000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.001861946797371626</v>
-      </c>
-      <c r="J11">
-        <v>0.001861946797371626</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.020076</v>
-      </c>
-      <c r="N11">
-        <v>0.060228</v>
-      </c>
-      <c r="O11">
-        <v>0.2773528341768247</v>
-      </c>
-      <c r="P11">
-        <v>0.2773528341768246</v>
-      </c>
-      <c r="Q11">
-        <v>0.0004960177320000001</v>
-      </c>
-      <c r="R11">
-        <v>0.004464159588</v>
-      </c>
-      <c r="S11">
-        <v>0.0005164162213374824</v>
-      </c>
-      <c r="T11">
-        <v>0.0005164162213374823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.024707</v>
-      </c>
-      <c r="H12">
-        <v>0.07412100000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.001861946797371626</v>
-      </c>
-      <c r="J12">
-        <v>0.001861946797371626</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.0003156666666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.000947</v>
-      </c>
-      <c r="O12">
-        <v>0.004360980506831589</v>
-      </c>
-      <c r="P12">
-        <v>0.004360980506831588</v>
-      </c>
-      <c r="Q12">
-        <v>7.799176333333334E-06</v>
-      </c>
-      <c r="R12">
-        <v>7.019258700000001E-05</v>
-      </c>
-      <c r="S12">
-        <v>8.119913688095169E-06</v>
-      </c>
-      <c r="T12">
-        <v>8.119913688095167E-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.024707</v>
-      </c>
-      <c r="H13">
-        <v>0.07412100000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.001861946797371626</v>
-      </c>
-      <c r="J13">
-        <v>0.001861946797371626</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.05199266666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.155978</v>
-      </c>
-      <c r="O13">
-        <v>0.7182861853163438</v>
-      </c>
-      <c r="P13">
-        <v>0.7182861853163438</v>
-      </c>
-      <c r="Q13">
-        <v>0.001284582815333333</v>
-      </c>
-      <c r="R13">
-        <v>0.011561245338</v>
-      </c>
-      <c r="S13">
-        <v>0.001337410662346049</v>
-      </c>
-      <c r="T13">
-        <v>0.001337410662346049</v>
+        <v>4.457145884267293E-05</v>
       </c>
     </row>
   </sheetData>
